--- a/deal_with_data/daily_retracement/108sm-ecmpp.xlsx
+++ b/deal_with_data/daily_retracement/108sm-ecmpp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AB4123-6001-4F69-B211-E9B27EF5607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A4971-A14B-4108-ABF4-38718B9F2FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="108sm-ecmpp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ï»¿"æ—¥æœŸ"</t>
   </si>
@@ -48,101 +48,41 @@
     <t>æ¶¨è·Œå¹…</t>
   </si>
   <si>
-    <t>2024-4-19</t>
-  </si>
-  <si>
     <t>54.66M</t>
   </si>
   <si>
-    <t>-1.22%</t>
-  </si>
-  <si>
-    <t>2024-4-18</t>
-  </si>
-  <si>
     <t>35.34M</t>
   </si>
   <si>
-    <t>-0.62%</t>
-  </si>
-  <si>
-    <t>2024-4-17</t>
-  </si>
-  <si>
     <t>43.01M</t>
   </si>
   <si>
-    <t>-0.77%</t>
-  </si>
-  <si>
-    <t>2024-4-16</t>
-  </si>
-  <si>
     <t>72.65M</t>
   </si>
   <si>
-    <t>-1.92%</t>
-  </si>
-  <si>
-    <t>2024-4-15</t>
-  </si>
-  <si>
     <t>73.13M</t>
   </si>
   <si>
-    <t>-2.19%</t>
-  </si>
-  <si>
-    <t>2024-4-12</t>
-  </si>
-  <si>
     <t>101.67M</t>
   </si>
   <si>
-    <t>0.86%</t>
-  </si>
-  <si>
-    <t>2024-4-11</t>
-  </si>
-  <si>
     <t>91.07M</t>
   </si>
   <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>2024-4-10</t>
-  </si>
-  <si>
     <t>49.71M</t>
   </si>
   <si>
-    <t>-1.11%</t>
-  </si>
-  <si>
-    <t>2024-4-9</t>
-  </si>
-  <si>
     <t>42.45M</t>
   </si>
   <si>
-    <t>0.72%</t>
-  </si>
-  <si>
-    <t>2024-4-8</t>
-  </si>
-  <si>
     <t>37.22M</t>
-  </si>
-  <si>
-    <t>-0.67%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,6 +93,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,21 +443,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125"/>
+    <col min="6" max="6" width="10.27734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,234 +480,234 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B2" s="2">
+        <v>164.99</v>
+      </c>
+      <c r="C2" s="2">
+        <v>166.02</v>
+      </c>
+      <c r="D2" s="2">
+        <v>166.39</v>
+      </c>
+      <c r="E2" s="2">
+        <v>164.08</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>164.99</v>
-      </c>
-      <c r="C2">
-        <v>166.02</v>
-      </c>
-      <c r="D2">
-        <v>166.39</v>
-      </c>
-      <c r="E2">
-        <v>164.08</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B3" s="2">
+        <v>167.03</v>
+      </c>
+      <c r="C3" s="2">
+        <v>168.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>168.62</v>
+      </c>
+      <c r="E3" s="2">
+        <v>166.57</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="3">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B4" s="2">
+        <v>168.07</v>
+      </c>
+      <c r="C4" s="2">
+        <v>169.39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>170.62</v>
+      </c>
+      <c r="E4" s="2">
+        <v>168.05</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="G4" s="3">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B5" s="2">
+        <v>169.38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>172.95</v>
+      </c>
+      <c r="D5" s="2">
+        <v>173.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>168.28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>167.03</v>
-      </c>
-      <c r="C3">
-        <v>168.26</v>
-      </c>
-      <c r="D3">
-        <v>168.62</v>
-      </c>
-      <c r="E3">
-        <v>166.57</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G5" s="3">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B6" s="2">
+        <v>172.69</v>
+      </c>
+      <c r="C6" s="2">
+        <v>175.36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>176.63</v>
+      </c>
+      <c r="E6" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G6" s="3">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B7" s="2">
+        <v>176.55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>174.26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>178.36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>174.21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G7" s="3">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B8" s="2">
+        <v>175.04</v>
+      </c>
+      <c r="C8" s="2">
+        <v>168.34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>175.46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>168.16</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>168.07</v>
-      </c>
-      <c r="C4">
-        <v>169.39</v>
-      </c>
-      <c r="D4">
-        <v>170.62</v>
-      </c>
-      <c r="E4">
-        <v>168.05</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G8" s="3">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B9" s="2">
+        <v>167.78</v>
+      </c>
+      <c r="C9" s="2">
+        <v>168.8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>169.09</v>
+      </c>
+      <c r="E9" s="2">
+        <v>167.11</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G9" s="3">
+        <v>-1.11E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B10" s="2">
+        <v>169.67</v>
+      </c>
+      <c r="C10" s="2">
+        <v>168.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>170.08</v>
+      </c>
+      <c r="E10" s="2">
+        <v>168.35</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="G10" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B11" s="2">
+        <v>168.45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>169.03</v>
+      </c>
+      <c r="D11" s="2">
+        <v>169.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>168.24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>169.38</v>
-      </c>
-      <c r="C5">
-        <v>172.95</v>
-      </c>
-      <c r="D5">
-        <v>173.75</v>
-      </c>
-      <c r="E5">
-        <v>168.28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>172.69</v>
-      </c>
-      <c r="C6">
-        <v>175.36</v>
-      </c>
-      <c r="D6">
-        <v>176.63</v>
-      </c>
-      <c r="E6">
-        <v>172.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>176.55</v>
-      </c>
-      <c r="C7">
-        <v>174.26</v>
-      </c>
-      <c r="D7">
-        <v>178.36</v>
-      </c>
-      <c r="E7">
-        <v>174.21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>175.04</v>
-      </c>
-      <c r="C8">
-        <v>168.34</v>
-      </c>
-      <c r="D8">
-        <v>175.46</v>
-      </c>
-      <c r="E8">
-        <v>168.16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>167.78</v>
-      </c>
-      <c r="C9">
-        <v>168.8</v>
-      </c>
-      <c r="D9">
-        <v>169.09</v>
-      </c>
-      <c r="E9">
-        <v>167.11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>169.67</v>
-      </c>
-      <c r="C10">
-        <v>168.7</v>
-      </c>
-      <c r="D10">
-        <v>170.08</v>
-      </c>
-      <c r="E10">
-        <v>168.35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>168.45</v>
-      </c>
-      <c r="C11">
-        <v>169.03</v>
-      </c>
-      <c r="D11">
-        <v>169.2</v>
-      </c>
-      <c r="E11">
-        <v>168.24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
+      <c r="G11" s="3">
+        <v>-6.7000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
